--- a/biology/Botanique/Hoya_carnosa/Hoya_carnosa.xlsx
+++ b/biology/Botanique/Hoya_carnosa/Hoya_carnosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoya carnosa est une espèce de plante à fleurs de la famille des Apocynaceae. C'est une liane aux tiges et feuilles glabres originaire d'Asie, de l'Inde jusqu'en Malaisie, ainsi que d'Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiges mesurent jusqu'à 6 m.
 Les feuilles, ovales ou elliptiques, mesurent 3–5 cm de large pour 3,5–13 cm de long, avec un pétiole de 1–1,5 cm environ.
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoya carnosa se cultive bien en pot et en panier suspendu. Ses rameaux nombreux prolifèrent pour atteindre des proportions importantes (lianes de plusieurs mètres). Son feuillage est légèrement ciré et les fleurs sont très parfumées quand l'exposition lui plaît (2 à 3 heures au soleil levant ou couchant, par exemple).
 Floraison : du printemps à la fin de l'été, il peut produire des ombelles de 10 à 30 petites fleurs en forme d'étoile dont la maturité est progressive (2 à 3 semaines) sur le même pédoncule. Les effluves sont nocturnes à tendance phéromonale. Elles méritent bien leurs appellations de « fleurs de porcelaine » ou « fleurs de cire ».
